--- a/hw06/hw06.xlsx
+++ b/hw06/hw06.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">MaxSubArray</t>
   </si>
   <si>
-    <t xml:space="preserve">MaxSubArrayN^2</t>
+    <t xml:space="preserve">MaxSubArrayBF2</t>
   </si>
   <si>
     <t xml:space="preserve">MaxSubArrayN</t>
@@ -47,15 +47,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK HK"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -84,11 +86,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,11 +161,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -192,16 +189,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -215,16 +212,16 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -232,11 +229,17 @@
       <c r="A2" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="n">
-        <v>4.053116E-006</v>
-      </c>
-      <c r="C2" s="5" t="n">
-        <v>7.469654E-007</v>
+      <c r="B2" s="4" t="n">
+        <v>3.814697E-006</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>7.719994E-007</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>6.19173E-007</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.108646E-007</v>
       </c>
       <c r="F2" s="0" t="n">
         <f aca="false">A2*A2*A2/10000000000</f>
@@ -252,10 +255,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="5" t="n">
-        <v>2.384186E-005</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>1.669884E-006</v>
+        <v>2.098083E-005</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1.575947E-006</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2.279997E-006</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>2.450943E-007</v>
       </c>
       <c r="F3" s="0" t="n">
         <f aca="false">A3*A3*A3/10000000000</f>
@@ -271,10 +280,16 @@
         <v>64</v>
       </c>
       <c r="B4" s="5" t="n">
-        <v>0.0001769066</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>3.625154E-006</v>
+        <v>0.0001590252</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>3.507137E-006</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.148172E-006</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.387928E-007</v>
       </c>
       <c r="F4" s="0" t="n">
         <f aca="false">A4*A4*A4/10000000000</f>
@@ -290,10 +305,16 @@
         <v>128</v>
       </c>
       <c r="B5" s="5" t="n">
-        <v>0.001698017</v>
-      </c>
-      <c r="C5" s="5" t="n">
-        <v>9.549856E-006</v>
+        <v>0.001335144</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>5.550861E-006</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.741409E-005</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.619526E-007</v>
       </c>
       <c r="F5" s="0" t="n">
         <f aca="false">A5*A5*A5/10000000000</f>
@@ -308,11 +329,17 @@
       <c r="A6" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0.007878065</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>1.841818E-005</v>
+      <c r="B6" s="4" t="n">
+        <v>0.01074004</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.705408E-005</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6.904483E-005</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.520054E-007</v>
       </c>
       <c r="F6" s="0" t="n">
         <f aca="false">A6*A6*A6/10000000000</f>
@@ -327,11 +354,17 @@
       <c r="A7" s="0" t="n">
         <v>512</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>0.06460094</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>3.652388E-005</v>
+      <c r="B7" s="4" t="n">
+        <v>0.05154109</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>2.03321E-005</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.0002505159</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.917839E-006</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">A7*A7*A7/10000000000</f>
@@ -346,11 +379,17 @@
       <c r="A8" s="0" t="n">
         <v>1024</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>0.397145</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>7.203807E-005</v>
+      <c r="B8" s="4" t="n">
+        <v>0.375561</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>5.122399E-005</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.001051031</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.03595E-006</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">A8*A8*A8/10000000000</f>
@@ -365,11 +404,17 @@
       <c r="A9" s="0" t="n">
         <v>2048</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>3.292956</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0.000155273</v>
+      <c r="B9" s="4" t="n">
+        <v>3.060357</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.0001202011</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.004377769</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>8.489847E-006</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">A9*A9*A9/10000000000</f>
@@ -384,11 +429,17 @@
       <c r="A10" s="0" t="n">
         <v>3890</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>25.69436</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0.0003910709</v>
+      <c r="B10" s="4" t="n">
+        <v>23.28808</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.000311235</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.01806708</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.800108E-005</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">A10*A10*A10/10000000000</f>

--- a/hw06/hw06.xlsx
+++ b/hw06/hw06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jack\NTHU\Algorithm_EE39800\hw06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C74AC0D-465E-4C1C-82A3-4B27CBB7B036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B563D2-3F24-4A8C-920B-FC17C792AD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>N</t>
   </si>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -155,9 +155,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -335,7 +341,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>3.8146969999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -347,19 +353,19 @@
                 <c:pt idx="3">
                   <c:v>1.3351439999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00000E+00">
+                <c:pt idx="4">
                   <c:v>1.0740039999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000E+00">
+                <c:pt idx="5">
                   <c:v>5.1541089999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00000E+00">
+                <c:pt idx="6">
                   <c:v>0.37556099999999998</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00000E+00">
+                <c:pt idx="7">
                   <c:v>3.0603570000000002</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00000E+00">
+                <c:pt idx="8">
                   <c:v>23.288080000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -450,7 +456,7 @@
             <c:numRef>
               <c:f>工作表1!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.7199940000000002E-7</c:v>
@@ -569,7 +575,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>6.1917300000000003E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -686,7 +692,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>1.108646E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -720,6 +726,498 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-16AF-4DBB-8F7B-136A38BA5B07}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N^3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.096E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2768E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.62144E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.097152E-8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6777216E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.34217728E-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.073741824E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.589934592E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8863869000000001E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-11CE-4E4B-9FC4-DD49369C7C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N lg N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.9265919722494797E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8164799306236993E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1559551833496877E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6972287611492714E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1650943111983351E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3871462200196253E-9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0825471555991676E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7816037423181691E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3964903949157003E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-11CE-4E4B-9FC4-DD49369C7C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5600000000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.024E-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0960000000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6384E-9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5536000000000002E-9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6214400000000001E-8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.048576E-7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1943040000000001E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.51321E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-11CE-4E4B-9FC4-DD49369C7C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="bg2">
+                    <a:lumMod val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>工作表1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3890</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.6E-11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1999999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3999999999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.28E-10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5599999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1199999999999999E-10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.024E-9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.048E-9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.8899999999999996E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-11CE-4E4B-9FC4-DD49369C7C40}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,7 +1442,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1228,7 +1726,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>3.8146969999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1240,19 +1738,19 @@
                 <c:pt idx="3">
                   <c:v>1.3351439999999999E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="0.00000E+00">
+                <c:pt idx="4">
                   <c:v>1.0740039999999999E-2</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="0.00000E+00">
+                <c:pt idx="5">
                   <c:v>5.1541089999999998E-2</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="0.00000E+00">
+                <c:pt idx="6">
                   <c:v>0.37556099999999998</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="0.00000E+00">
+                <c:pt idx="7">
                   <c:v>3.0603570000000002</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="0.00000E+00">
+                <c:pt idx="8">
                   <c:v>23.288080000000001</c:v>
                 </c:pt>
               </c:numCache>
@@ -1591,7 +2089,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1873,7 +2371,7 @@
             <c:numRef>
               <c:f>工作表1!$C$2:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>0.00000E+00</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>7.7199940000000002E-7</c:v>
@@ -2243,7 +2741,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2527,7 +3025,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>6.1917300000000003E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2903,7 +3401,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3187,7 +3685,7 @@
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0" formatCode="0.00000E+00">
+                <c:pt idx="0">
                   <c:v>1.108646E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3551,7 +4049,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6459,16 +6957,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>298132</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>103823</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>61649</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>274319</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>646386</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>41911</xdr:rowOff>
+      <xdr:rowOff>31531</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6937,10 +7435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G10"/>
+    <sheetView tabSelected="1" topLeftCell="L25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6954,10 +7452,13 @@
     <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="1025" width="11.5"/>
+    <col min="10" max="10" width="11.5"/>
+    <col min="11" max="11" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.8" thickBot="1">
+    <row r="1" spans="1:13" ht="31.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6985,54 +7486,82 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="7">
         <v>3.8146969999999998E-6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>7.7199940000000002E-7</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="8">
         <v>6.1917300000000003E-7</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="8">
         <v>1.108646E-7</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:I10" si="0">A2*A2*A2/10000000000</f>
+        <f t="shared" ref="F2:F10" si="0">A2*A2*A2/10000000000</f>
         <v>4.0960000000000001E-7</v>
       </c>
       <c r="G2">
         <f>A2*LOG(A2)/100000000</f>
         <v>1.9265919722494797E-7</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f>A2*A2/10000000000</f>
         <v>2.5600000000000001E-8</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f>A2/1000000000</f>
         <v>1.6000000000000001E-8</v>
       </c>
+      <c r="J2">
+        <f>A2*A2*A2/100000000000000</f>
+        <v>4.096E-11</v>
+      </c>
+      <c r="K2">
+        <f>A2*LOG(A2)/1000000000000</f>
+        <v>1.9265919722494797E-11</v>
+      </c>
+      <c r="L2" s="5">
+        <f>A2*A2/10000000000000</f>
+        <v>2.5600000000000001E-11</v>
+      </c>
+      <c r="M2" s="5">
+        <f>A2/1000000000000</f>
+        <v>1.6E-11</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>32</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>2.0980829999999999E-5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>1.575947E-6</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.2799969999999999E-6</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>2.4509430000000001E-7</v>
       </c>
       <c r="F3">
@@ -7043,29 +7572,45 @@
         <f t="shared" ref="G3:G10" si="1">A3*LOG(A3)/100000000</f>
         <v>4.816479930623699E-7</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f t="shared" ref="H3:H10" si="2">A3*A3/10000000000</f>
         <v>1.024E-7</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I10" si="3">A3/1000000000</f>
         <v>3.2000000000000002E-8</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J10" si="4">A3*A3*A3/100000000000000</f>
+        <v>3.2768E-10</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K10" si="5">A3*LOG(A3)/1000000000000</f>
+        <v>4.8164799306236993E-11</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L10" si="6">A3*A3/10000000000000</f>
+        <v>1.024E-10</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" ref="M3:M10" si="7">A3/1000000000000</f>
+        <v>3.1999999999999999E-11</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>64</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1.5902519999999999E-4</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>3.5071369999999998E-6</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>5.1481720000000002E-6</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.3879280000000002E-7</v>
       </c>
       <c r="F4">
@@ -7076,29 +7621,45 @@
         <f t="shared" si="1"/>
         <v>1.1559551833496878E-6</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>4.0960000000000001E-7</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="3"/>
         <v>6.4000000000000004E-8</v>
       </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>2.62144E-9</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.1559551833496877E-10</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="6"/>
+        <v>4.0960000000000001E-10</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" si="7"/>
+        <v>6.3999999999999999E-11</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>128</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>1.3351439999999999E-3</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>5.5508609999999996E-6</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.7414089999999999E-5</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>5.6195259999999998E-7</v>
       </c>
       <c r="F5">
@@ -7109,29 +7670,45 @@
         <f t="shared" si="1"/>
         <v>2.6972287611492716E-6</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="2"/>
         <v>1.6384000000000001E-6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>1.2800000000000001E-7</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2.097152E-8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>2.6972287611492714E-10</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="6"/>
+        <v>1.6384E-9</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="7"/>
+        <v>1.28E-10</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>256</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="7">
         <v>1.0740039999999999E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="7">
         <v>1.7054079999999999E-5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>6.9044830000000002E-5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>9.5200539999999995E-7</v>
       </c>
       <c r="F6">
@@ -7142,29 +7719,45 @@
         <f t="shared" si="1"/>
         <v>6.1650943111983352E-6</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="2"/>
         <v>6.5536000000000002E-6</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="3"/>
         <v>2.5600000000000002E-7</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.6777216E-7</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>6.1650943111983351E-10</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="6"/>
+        <v>6.5536000000000002E-9</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5599999999999999E-10</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>512</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="7">
         <v>5.1541089999999998E-2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="7">
         <v>2.0332100000000001E-5</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>2.5051590000000002E-4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>1.9178390000000001E-6</v>
       </c>
       <c r="F7">
@@ -7175,29 +7768,45 @@
         <f t="shared" si="1"/>
         <v>1.3871462200196254E-5</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="2"/>
         <v>2.6214400000000001E-5</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="3"/>
         <v>5.1200000000000003E-7</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.34217728E-6</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>1.3871462200196253E-9</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6214400000000001E-8</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1199999999999999E-10</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1024</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="7">
         <v>0.37556099999999998</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="7">
         <v>5.1223990000000002E-5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.051031E-3</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>4.0359499999999999E-6</v>
       </c>
       <c r="F8">
@@ -7208,29 +7817,45 @@
         <f t="shared" si="1"/>
         <v>3.0825471555991673E-5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="2"/>
         <v>1.048576E-4</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="3"/>
         <v>1.0240000000000001E-6</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>1.073741824E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>3.0825471555991676E-9</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="6"/>
+        <v>1.048576E-7</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="7"/>
+        <v>1.024E-9</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>2048</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="7">
         <v>3.0603570000000002</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="7">
         <v>1.202011E-4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4.3777690000000001E-3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>8.4898469999999998E-6</v>
       </c>
       <c r="F9">
@@ -7241,29 +7866,45 @@
         <f t="shared" si="1"/>
         <v>6.7816037423181689E-5</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>4.1943040000000002E-4</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="3"/>
         <v>2.0480000000000001E-6</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>8.589934592E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>6.7816037423181691E-9</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="6"/>
+        <v>4.1943040000000001E-7</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="7"/>
+        <v>2.048E-9</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>3890</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="7">
         <v>23.288080000000001</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="7">
         <v>3.1123499999999998E-4</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.8067079999999999E-2</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>1.8001080000000001E-5</v>
       </c>
       <c r="F10">
@@ -7274,13 +7915,29 @@
         <f t="shared" si="1"/>
         <v>1.3964903949157003E-4</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="2"/>
         <v>1.5132100000000001E-3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="3"/>
         <v>3.89E-6</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>5.8863869000000001E-4</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>1.3964903949157003E-8</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="6"/>
+        <v>1.51321E-6</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="7"/>
+        <v>3.8899999999999996E-9</v>
       </c>
     </row>
   </sheetData>
